--- a/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>LDI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,41 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +709,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1300200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1409300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3318800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>475600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1111400</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E9" s="3">
         <v>108200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>229700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>85200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>180100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,26 +773,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1173100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1301100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3089100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>390400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>931300</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +821,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +851,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +883,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +915,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -904,17 +927,17 @@
         <v>8500</v>
       </c>
       <c r="E15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F15" s="3">
         <v>27100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>27300</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +947,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,26 +960,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>910200</v>
+      </c>
+      <c r="E17" s="3">
         <v>777100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1603100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>431000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>962500</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,26 +990,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E18" s="3">
         <v>632200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1715700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>44600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>148900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1022,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,26 +1038,27 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-68300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-216100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-19500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,26 +1068,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>467800</v>
+      </c>
+      <c r="E21" s="3">
         <v>572400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1526600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>35200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>76200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,26 +1100,29 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E22" s="3">
         <v>15900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>32100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>30400</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,26 +1132,29 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>446100</v>
+      </c>
+      <c r="E23" s="3">
         <v>548000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1467400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18500</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,26 +1164,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,8 +1196,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,26 +1228,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>427900</v>
+      </c>
+      <c r="E26" s="3">
         <v>547200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1465900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18200</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,26 +1260,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E27" s="3">
         <v>547200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1465900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18200</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1292,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1324,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1356,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1388,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,26 +1420,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="E32" s="3">
         <v>68300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>216100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>19500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,26 +1452,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E33" s="3">
         <v>547200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1465900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18200</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1484,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,26 +1516,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E35" s="3">
         <v>547200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1465900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18200</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,31 +1548,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1585,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1601,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,20 +1615,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>630500</v>
+      </c>
+      <c r="E41" s="3">
         <v>284200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>637500</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1645,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,20 +1677,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E43" s="3">
         <v>138100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>118400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1709,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,20 +1741,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E45" s="3">
         <v>77200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>57600</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1773,11 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1703,20 +1805,23 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9648100</v>
+      </c>
+      <c r="E47" s="3">
         <v>8219100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6089200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1732,20 +1837,23 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E48" s="3">
         <v>151400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>132700</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,20 +1869,23 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E49" s="3">
         <v>42800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>43000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1901,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1933,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,20 +1965,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E52" s="3">
         <v>204500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>70400</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +1997,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,20 +2029,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13298300</v>
+      </c>
+      <c r="E54" s="3">
         <v>10893200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8651300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2061,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2077,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,20 +2091,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>890800</v>
+      </c>
+      <c r="E57" s="3">
         <v>442900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>376000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,8 +2121,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2019,20 +2153,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E59" s="3">
         <v>86000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>72600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +2185,11 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2077,20 +2217,23 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9614500</v>
+      </c>
+      <c r="E61" s="3">
         <v>7293300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5325800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2106,8 +2249,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2135,8 +2281,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2313,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2345,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,20 +2377,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12694100</v>
+      </c>
+      <c r="E66" s="3">
         <v>10893200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7017800</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2409,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2425,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2455,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2487,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2519,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,20 +2551,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3">
         <v>1503700</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2583,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2615,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2647,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,20 +2679,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="3">
+      <c r="D76" s="3">
+        <v>604200</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="3">
         <v>1633500</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2711,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,31 +2743,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,26 +2780,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E81" s="3">
         <v>547200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1465900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18200</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2812,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +2828,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2639,17 +2838,17 @@
         <v>8500</v>
       </c>
       <c r="E83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F83" s="3">
         <v>27100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,8 +2858,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2890,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2922,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2954,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2986,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,26 +3018,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1877800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1612600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-418100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-554000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-943300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3050,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,26 +3066,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9900</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,8 +3096,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3128,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,26 +3160,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>152100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3192,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3208,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3238,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3270,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3302,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,26 +3334,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2154300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1407700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1021800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>603200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>756600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3366,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,26 +3398,29 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>263200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-219200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>590400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-34700</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3428,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>LDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,45 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,29 +713,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>979900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1409300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3318800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>475600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1111400</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,29 +748,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>132100</v>
+      </c>
+      <c r="E9" s="3">
         <v>127100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>108200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>229700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>85200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>180100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -776,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>847800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1173100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1301100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3089100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>390400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>931300</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,8 +818,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -822,8 +835,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,8 +868,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -886,8 +903,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,29 +938,32 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="E15" s="3">
         <v>8500</v>
       </c>
       <c r="F15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G15" s="3">
         <v>27100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>27300</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -950,8 +973,11 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -961,29 +987,30 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>783000</v>
+      </c>
+      <c r="E17" s="3">
         <v>910200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>777100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1603100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>431000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>962500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,29 +1020,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>196900</v>
+      </c>
+      <c r="E18" s="3">
         <v>390000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>632200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1715700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>44600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>148900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1055,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1039,29 +1072,30 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-145100</v>
+      </c>
+      <c r="E20" s="3">
         <v>69300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-68300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-216100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1071,29 +1105,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E21" s="3">
         <v>467800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>572400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1526600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>35200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>76200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1103,29 +1140,32 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E22" s="3">
         <v>13200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>32100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>30400</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1135,29 +1175,32 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E23" s="3">
         <v>446100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>548000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1467400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18500</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,29 +1210,32 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E24" s="3">
         <v>18300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1199,8 +1245,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,29 +1280,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E26" s="3">
         <v>427900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>547200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1465900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18200</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,29 +1315,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E27" s="3">
         <v>44900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>547200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1465900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1295,8 +1350,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,8 +1385,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,8 +1420,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1455,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1423,29 +1490,32 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-69300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>68300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>216100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1455,29 +1525,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E33" s="3">
         <v>44900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>547200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1465900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18200</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1560,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1519,29 +1595,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E35" s="3">
         <v>44900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>547200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1465900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18200</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,34 +1630,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1670,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1602,8 +1687,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,23 +1702,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>419300</v>
+      </c>
+      <c r="E41" s="3">
         <v>630500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>284200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>637500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,8 +1735,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1680,23 +1770,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E43" s="3">
         <v>84000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>138100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>118400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1712,8 +1805,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1744,23 +1840,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E45" s="3">
         <v>84800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>77200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>57600</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1776,8 +1875,11 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1808,23 +1910,26 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9968200</v>
+      </c>
+      <c r="E47" s="3">
         <v>9648100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8219100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6089200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1840,23 +1945,26 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>158800</v>
+      </c>
+      <c r="E48" s="3">
         <v>154200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>151400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>132700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1872,23 +1980,26 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E49" s="3">
         <v>42700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>43000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1904,8 +2015,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1936,8 +2050,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1968,23 +2085,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>217400</v>
+      </c>
+      <c r="E52" s="3">
         <v>121400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>204500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>70400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,8 +2120,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,23 +2155,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13097600</v>
+      </c>
+      <c r="E54" s="3">
         <v>13298300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10893200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8651300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2190,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,8 +2207,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2092,23 +2222,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>607800</v>
+      </c>
+      <c r="E57" s="3">
         <v>890800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>442900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>376000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2255,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2156,23 +2290,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E59" s="3">
         <v>80800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>86000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>72600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,8 +2325,11 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2220,23 +2360,26 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9971700</v>
+      </c>
+      <c r="E61" s="3">
         <v>9614500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7293300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5325800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2252,8 +2395,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2284,8 +2430,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +2465,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,8 +2500,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,23 +2535,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12579500</v>
+      </c>
+      <c r="E66" s="3">
         <v>12694100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10893200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7017800</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2570,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2426,8 +2587,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2458,8 +2620,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2490,8 +2655,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2522,8 +2690,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2554,23 +2725,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E72" s="3">
         <v>42400</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
         <v>1503700</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2760,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2618,8 +2795,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,8 +2830,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2682,23 +2865,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>518100</v>
+      </c>
+      <c r="E76" s="3">
         <v>604200</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3">
         <v>1633500</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2714,8 +2900,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2746,34 +2935,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2783,29 +2975,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E81" s="3">
         <v>44900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>547200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1465900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18200</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,8 +3010,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,29 +3027,30 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="E83" s="3">
         <v>8500</v>
       </c>
       <c r="F83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G83" s="3">
         <v>27100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +3060,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2893,8 +3095,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2925,8 +3130,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2957,8 +3165,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,8 +3200,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3021,29 +3235,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-392500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1877800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1612600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-418100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-554000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-943300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3053,8 +3270,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3067,29 +3287,30 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9900</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3099,8 +3320,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3131,8 +3355,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3163,29 +3390,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>152100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,8 +3425,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3209,28 +3442,29 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-233700</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-166600</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-490700</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-152300</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-7100</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3241,8 +3475,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3273,8 +3510,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3305,8 +3545,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3337,29 +3580,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2154300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1407700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1021800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>603200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>756600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3369,8 +3615,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3401,29 +3650,32 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-115100</v>
+      </c>
+      <c r="E102" s="3">
         <v>263200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-219200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>590400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>38200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-34700</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,6 +3683,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>LDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,50 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
-        <v>43830</v>
-      </c>
       <c r="I7" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+        <v>44012</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43921</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -716,31 +719,34 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1119000</v>
+      </c>
+      <c r="E8" s="3">
         <v>979900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1300200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1409300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3318800</v>
       </c>
-      <c r="H8" s="3">
-        <v>475600</v>
-      </c>
       <c r="I8" s="3">
-        <v>1111400</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>1218400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>619200</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -751,31 +757,34 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E9" s="3">
         <v>132100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>127100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>108200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>229700</v>
       </c>
-      <c r="H9" s="3">
-        <v>85200</v>
-      </c>
       <c r="I9" s="3">
-        <v>180100</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>71300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>72600</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,31 +795,34 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>989800</v>
+      </c>
+      <c r="E10" s="3">
         <v>847800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1173100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1301100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3089100</v>
       </c>
-      <c r="H10" s="3">
-        <v>390400</v>
-      </c>
       <c r="I10" s="3">
-        <v>931300</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>1147100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>546600</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -821,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,22 +975,22 @@
         <v>8700</v>
       </c>
       <c r="E15" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="F15" s="3">
         <v>8500</v>
       </c>
       <c r="G15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H15" s="3">
         <v>27100</v>
       </c>
-      <c r="H15" s="3">
-        <v>10100</v>
-      </c>
       <c r="I15" s="3">
-        <v>27300</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>9200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>9400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -976,8 +1001,11 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,31 +1016,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>778700</v>
+      </c>
+      <c r="E17" s="3">
         <v>783000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>910200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>777100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1603100</v>
       </c>
-      <c r="H17" s="3">
-        <v>431000</v>
-      </c>
       <c r="I17" s="3">
-        <v>962500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>525100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>419000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1023,31 +1052,34 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>340300</v>
+      </c>
+      <c r="E18" s="3">
         <v>196900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>390000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>632200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1715700</v>
       </c>
-      <c r="H18" s="3">
-        <v>44600</v>
-      </c>
       <c r="I18" s="3">
-        <v>148900</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>693300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>200200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1058,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,31 +1108,32 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-138500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-145100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>69300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-68300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-216100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-19500</v>
-      </c>
       <c r="I20" s="3">
-        <v>-100000</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-33100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1108,31 +1144,34 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>210500</v>
+      </c>
+      <c r="E21" s="3">
         <v>60500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>467800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>572400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1526600</v>
       </c>
-      <c r="H21" s="3">
-        <v>35200</v>
-      </c>
       <c r="I21" s="3">
-        <v>76200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>669300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>109300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1143,31 +1182,34 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E22" s="3">
         <v>21300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>32100</v>
       </c>
-      <c r="H22" s="3">
-        <v>10900</v>
-      </c>
       <c r="I22" s="3">
-        <v>30400</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>10600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>11000</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1178,31 +1220,34 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E23" s="3">
         <v>30500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>446100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>548000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1467400</v>
       </c>
-      <c r="H23" s="3">
-        <v>14200</v>
-      </c>
       <c r="I23" s="3">
-        <v>18500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>649500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>89000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1213,31 +1258,34 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
-        <v>-2000</v>
-      </c>
       <c r="I24" s="3">
-        <v>300</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1248,8 +1296,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,31 +1334,34 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>154300</v>
+      </c>
+      <c r="E26" s="3">
         <v>26300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>427900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>547200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1465900</v>
       </c>
-      <c r="H26" s="3">
-        <v>16200</v>
-      </c>
       <c r="I26" s="3">
-        <v>18200</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>648600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>89000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1318,31 +1372,34 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E27" s="3">
         <v>8600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>44900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>547200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1465900</v>
       </c>
-      <c r="H27" s="3">
-        <v>16200</v>
-      </c>
       <c r="I27" s="3">
-        <v>18200</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1353,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,31 +1562,34 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>138500</v>
+      </c>
+      <c r="E32" s="3">
         <v>145100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-69300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>68300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>216100</v>
       </c>
-      <c r="H32" s="3">
-        <v>19500</v>
-      </c>
       <c r="I32" s="3">
-        <v>100000</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>33100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1528,31 +1600,34 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E33" s="3">
         <v>8600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>44900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>547200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1465900</v>
       </c>
-      <c r="H33" s="3">
-        <v>16200</v>
-      </c>
       <c r="I33" s="3">
-        <v>18200</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1563,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,31 +1676,34 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E35" s="3">
         <v>8600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>44900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>547200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1465900</v>
       </c>
-      <c r="H35" s="3">
-        <v>16200</v>
-      </c>
       <c r="I35" s="3">
-        <v>18200</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1633,36 +1714,39 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
-        <v>43830</v>
-      </c>
       <c r="I38" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+        <v>44012</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43921</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1673,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,26 +1791,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>506600</v>
+      </c>
+      <c r="E41" s="3">
         <v>419300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>630500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>284200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>637500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1773,26 +1865,29 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E43" s="3">
         <v>65200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>84000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>138100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>118400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1808,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1843,26 +1941,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>108700</v>
+      </c>
+      <c r="E45" s="3">
         <v>94800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>84800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>77200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>57600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,8 +1979,11 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1913,26 +2017,29 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9581200</v>
+      </c>
+      <c r="E47" s="3">
         <v>9968200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9648100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8219100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6089200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1948,26 +2055,29 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>161600</v>
+      </c>
+      <c r="E48" s="3">
         <v>158800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>154200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>151400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>132700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,26 +2093,29 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E49" s="3">
         <v>42600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>42800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>43000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2131,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,26 +2207,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E52" s="3">
         <v>217400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>121400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>204500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>70400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,26 +2283,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12749300</v>
+      </c>
+      <c r="E54" s="3">
         <v>13097600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13298300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10893200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8651300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,26 +2355,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>715600</v>
+      </c>
+      <c r="E57" s="3">
         <v>607800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>890800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>442900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>376000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2258,8 +2391,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2293,26 +2429,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E59" s="3">
         <v>78100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>80800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>86000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>72600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2328,8 +2467,11 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2363,26 +2505,29 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9620900</v>
+      </c>
+      <c r="E61" s="3">
         <v>9971700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9614500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7293300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5325800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2398,8 +2543,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2433,8 +2581,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,26 +2695,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12214200</v>
+      </c>
+      <c r="E66" s="3">
         <v>12579500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12694100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10893200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7017800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2693,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,26 +2901,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>42400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3">
         <v>1503700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,26 +3053,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>535100</v>
+      </c>
+      <c r="E76" s="3">
         <v>518100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>604200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3">
         <v>1633500</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2903,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,36 +3129,39 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
-        <v>43830</v>
-      </c>
       <c r="I80" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+        <v>44012</v>
+      </c>
+      <c r="J80" s="2">
+        <v>43921</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2978,31 +3172,34 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E81" s="3">
         <v>8600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>44900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>547200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1465900</v>
       </c>
-      <c r="H81" s="3">
-        <v>16200</v>
-      </c>
       <c r="I81" s="3">
-        <v>18200</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3013,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3037,22 +3238,22 @@
         <v>8700</v>
       </c>
       <c r="E83" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="F83" s="3">
         <v>8500</v>
       </c>
       <c r="G83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H83" s="3">
         <v>27100</v>
       </c>
-      <c r="H83" s="3">
-        <v>10100</v>
-      </c>
       <c r="I83" s="3">
-        <v>27300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>9200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>9400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3063,8 +3264,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,31 +3454,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>211400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-392500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1877800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1612600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-418100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-554000</v>
-      </c>
       <c r="I89" s="3">
-        <v>-943300</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>543800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>166200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3273,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,31 +3510,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19600</v>
       </c>
-      <c r="H91" s="3">
-        <v>-2700</v>
-      </c>
       <c r="I91" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-5400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-5000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3323,8 +3546,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,31 +3622,34 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E94" s="3">
         <v>159000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13300</v>
       </c>
-      <c r="H94" s="3">
-        <v>-11000</v>
-      </c>
       <c r="I94" s="3">
-        <v>152100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-5300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>2000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3428,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,31 +3678,32 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-233700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-166600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-490700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-152300</v>
       </c>
-      <c r="H96" s="3">
-        <v>-7100</v>
-      </c>
       <c r="I96" s="3">
-        <v>-500</v>
+        <v>-1900</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3478,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,31 +3828,34 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-386900</v>
+      </c>
+      <c r="E100" s="3">
         <v>118300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2154300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1407700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1021800</v>
       </c>
-      <c r="H100" s="3">
-        <v>603200</v>
-      </c>
       <c r="I100" s="3">
-        <v>756600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>-571500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>360500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3618,8 +3866,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3653,31 +3904,34 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-115100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>263200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-219200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>590400</v>
       </c>
-      <c r="H102" s="3">
-        <v>38200</v>
-      </c>
       <c r="I102" s="3">
-        <v>-34700</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>-33000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>528700</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3686,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>LDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,35 +722,38 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>877000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1119000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>979900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1300200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1409300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3318800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1218400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>619200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,35 +763,38 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E9" s="3">
         <v>129200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>132100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>127100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>108200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>229700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>71300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>72600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,35 +804,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>754600</v>
+      </c>
+      <c r="E10" s="3">
         <v>989800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>847800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1173100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1301100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3089100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1147100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>546600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,35 +985,38 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8700</v>
+        <v>9700</v>
       </c>
       <c r="E15" s="3">
         <v>8700</v>
       </c>
       <c r="F15" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="G15" s="3">
         <v>8500</v>
       </c>
       <c r="H15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I15" s="3">
         <v>27100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,8 +1026,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,35 +1042,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>725200</v>
+      </c>
+      <c r="E17" s="3">
         <v>778700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>783000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>910200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>777100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1603100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>525100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>419000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,35 +1081,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E18" s="3">
         <v>340300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>196900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>390000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>632200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1715700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>693300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,35 +1141,36 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-118600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-138500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-145100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>69300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-68300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-216100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-33100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,35 +1180,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E21" s="3">
         <v>210500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>60500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>467800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>572400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1526600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>669300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>109300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,35 +1221,38 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E22" s="3">
         <v>22800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>32100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,35 +1262,38 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E23" s="3">
         <v>179000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>30500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>446100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>548000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1467400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>649500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>89000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,34 +1303,37 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>24700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1299,8 +1344,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,35 +1385,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E26" s="3">
         <v>154300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>427900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>547200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1465900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>648600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>89000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,34 +1426,37 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E27" s="3">
         <v>51500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>44900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>547200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1465900</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,35 +1631,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>118600</v>
+      </c>
+      <c r="E32" s="3">
         <v>138500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>145100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-69300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>68300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>216100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>33100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,34 +1672,37 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E33" s="3">
         <v>51500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>44900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>547200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1465900</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1641,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,34 +1754,37 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E35" s="3">
         <v>51500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>44900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>547200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1465900</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1717,40 +1795,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1877,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>419600</v>
+      </c>
+      <c r="E41" s="3">
         <v>506600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>419300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>630500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>284200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>637500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,29 +1957,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E43" s="3">
         <v>68100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>65200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>84000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>138100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>118400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +1998,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,29 +2039,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E45" s="3">
         <v>108700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>94800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>84800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>77200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>57600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,8 +2080,11 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2020,29 +2121,32 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8591600</v>
+      </c>
+      <c r="E47" s="3">
         <v>9581200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9968200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9648100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8219100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6089200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,29 +2162,32 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>159900</v>
+      </c>
+      <c r="E48" s="3">
         <v>161600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>158800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>154200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>151400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>132700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,29 +2203,32 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E49" s="3">
         <v>42400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>42700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>42800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>43000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2244,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,29 +2326,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E52" s="3">
         <v>97800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>217400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>121400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>204500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>70400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2408,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11812300</v>
+      </c>
+      <c r="E54" s="3">
         <v>12749300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13097600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13298300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10893200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8651300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2485,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>624400</v>
+      </c>
+      <c r="E57" s="3">
         <v>715600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>607800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>890800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>442900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>376000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2524,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2432,29 +2565,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E59" s="3">
         <v>73000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>78100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>80800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>86000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>72600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,8 +2606,11 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2508,29 +2647,32 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9085400</v>
+      </c>
+      <c r="E61" s="3">
         <v>9620900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9971700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9614500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7293300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5325800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2546,8 +2688,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2584,8 +2729,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +2852,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11288800</v>
+      </c>
+      <c r="E66" s="3">
         <v>12214200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12579500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12694100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10893200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7017800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,29 +3074,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>42400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
         <v>1503700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3238,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>523600</v>
+      </c>
+      <c r="E76" s="3">
         <v>535100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>518100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>604200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3">
         <v>1633500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3320,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,34 +3366,37 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E81" s="3">
         <v>51500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>44900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>547200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1465900</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3213,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,35 +3426,36 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8700</v>
+        <v>9700</v>
       </c>
       <c r="E83" s="3">
         <v>8700</v>
       </c>
       <c r="F83" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="G83" s="3">
         <v>8500</v>
       </c>
       <c r="H83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I83" s="3">
         <v>27100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3267,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,35 +3670,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>593200</v>
+      </c>
+      <c r="E89" s="3">
         <v>211400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-392500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1877800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1612600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-418100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>543800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>166200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,35 +3730,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3549,8 +3769,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,35 +3851,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E94" s="3">
         <v>143100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>159000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,34 +3911,35 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-19400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-233700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-166600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-490700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-152300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1900</v>
       </c>
       <c r="J96" s="3">
         <v>-1900</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
@@ -3717,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,35 +4073,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-585000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-386900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>118300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2154300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1407700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1021800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-571500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>360500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,35 +4155,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-115100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>263200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-219200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>590400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-33000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>528700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>LDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,217 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>382100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>611600</v>
+      </c>
+      <c r="F8" s="3">
         <v>877000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1119000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>979900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1300200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1409300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3318800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1218400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>619200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>114600</v>
+      </c>
+      <c r="F9" s="3">
         <v>122400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>129200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>132100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>127100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>108200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>229700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>71300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>72600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>297400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>497000</v>
+      </c>
+      <c r="F10" s="3">
         <v>754600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>989800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>847800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1173100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1301100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3089100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1147100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>546600</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +891,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +934,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,31 +981,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>40700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -988,49 +1028,61 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F15" s="3">
         <v>9700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>8700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>8700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>8500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>8500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>27100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>9200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>9400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,90 +1095,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>567400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>631800</v>
+      </c>
+      <c r="F17" s="3">
         <v>725200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>778700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>783000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>910200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>777100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1603100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>525100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>419000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-185300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="F18" s="3">
         <v>151800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>340300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>196900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>390000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>632200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1715700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>693300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>200200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,204 +1208,230 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-118600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-138500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-145100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>69300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-68300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-216100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-33100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-207600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="F21" s="3">
         <v>42900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>210500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>60500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>467800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>572400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1526600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>669300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>109300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F22" s="3">
         <v>22300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>22800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>21300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>13200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>15900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>32100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>10600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>11000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-252000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-102900</v>
+      </c>
+      <c r="F23" s="3">
         <v>10900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>179000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>30500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>446100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>548000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1467400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>649500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>89000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>24700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>18300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1347,8 +1439,14 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,81 +1486,93 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-223800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="F26" s="3">
         <v>14700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>154300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>26300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>427900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>547200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1465900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>648600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>89000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8600</v>
+        <v>-100900</v>
       </c>
       <c r="E27" s="3">
-        <v>51500</v>
+        <v>-34700</v>
       </c>
       <c r="F27" s="3">
         <v>8600</v>
       </c>
       <c r="G27" s="3">
+        <v>51500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I27" s="3">
         <v>44900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>547200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1465900</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1580,14 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1627,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1674,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1721,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,81 +1768,93 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>68400</v>
+      </c>
+      <c r="F32" s="3">
         <v>118600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>138500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>145100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-69300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>68300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>216100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>33100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8600</v>
+        <v>-100900</v>
       </c>
       <c r="E33" s="3">
-        <v>51500</v>
+        <v>-34700</v>
       </c>
       <c r="F33" s="3">
         <v>8600</v>
       </c>
       <c r="G33" s="3">
+        <v>51500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I33" s="3">
         <v>44900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>547200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1465900</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1862,14 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,40 +1909,46 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8600</v>
+        <v>-100900</v>
       </c>
       <c r="E35" s="3">
-        <v>51500</v>
+        <v>-34700</v>
       </c>
       <c r="F35" s="3">
         <v>8600</v>
       </c>
       <c r="G35" s="3">
+        <v>51500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I35" s="3">
         <v>44900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>547200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1465900</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1798,54 +1956,66 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2031,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,35 +2050,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>954900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>554100</v>
+      </c>
+      <c r="F41" s="3">
         <v>419600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>506600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>419300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>630500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>284200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>637500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2093,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,35 +2140,41 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>116000</v>
+      </c>
+      <c r="F43" s="3">
         <v>56200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>68100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>65200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>84000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>138100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>118400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2187,14 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,35 +2234,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>116300</v>
+      </c>
+      <c r="F45" s="3">
         <v>140300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>108700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>94800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>84800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>77200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>57600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,8 +2281,14 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2124,35 +2328,41 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5286500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7059800</v>
+      </c>
+      <c r="F47" s="3">
         <v>8591600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>9581200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>9968200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>9648100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>8219100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>6089200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,8 +2375,14 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2174,26 +2390,26 @@
         <v>159900</v>
       </c>
       <c r="E48" s="3">
+        <v>161000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>159900</v>
+      </c>
+      <c r="G48" s="3">
         <v>161600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>158800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>154200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>151400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>132700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,35 +2422,41 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>42200</v>
+      </c>
+      <c r="F49" s="3">
         <v>42300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>42400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>42600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>42700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>42800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>43000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2469,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2516,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,35 +2563,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>194600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>153700</v>
+      </c>
+      <c r="F52" s="3">
         <v>201000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>97800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>217400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>121400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>204500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>70400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2610,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,35 +2657,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9195200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10640200</v>
+      </c>
+      <c r="F54" s="3">
         <v>11812300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>12749300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>13097600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>13298300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10893200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8651300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2704,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2727,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,35 +2746,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>643100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>804400</v>
+      </c>
+      <c r="F57" s="3">
         <v>624400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>715600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>607800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>890800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>442900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>376000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2789,14 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2568,35 +2836,41 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>67700</v>
+      </c>
+      <c r="F59" s="3">
         <v>71900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>73000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>78100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>80800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>86000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>72600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,8 +2883,14 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2650,35 +2930,41 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6692500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7754500</v>
+      </c>
+      <c r="F61" s="3">
         <v>9085400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>9620900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>9971700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>9614500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7293300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5325800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2691,8 +2977,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2732,8 +3024,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3071,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3118,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,35 +3165,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8650600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10073800</v>
+      </c>
+      <c r="F66" s="3">
         <v>11288800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12214200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12579500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>12694100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10893200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7017800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3212,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3235,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3278,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3325,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3372,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,35 +3419,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-205200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-77200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-29000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-44800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>42400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>1503700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3466,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3513,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3560,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,35 +3607,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>544600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>566400</v>
+      </c>
+      <c r="F76" s="3">
         <v>523600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>535100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>518100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>604200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
         <v>1633500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3654,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,86 +3701,98 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8600</v>
+        <v>-100900</v>
       </c>
       <c r="E81" s="3">
-        <v>51500</v>
+        <v>-34700</v>
       </c>
       <c r="F81" s="3">
         <v>8600</v>
       </c>
       <c r="G81" s="3">
+        <v>51500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I81" s="3">
         <v>44900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>547200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1465900</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3410,8 +3800,14 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,49 +3823,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F83" s="3">
         <v>9700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>8700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>8500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>27100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>9200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>9400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3913,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3960,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4007,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4054,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,49 +4101,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1522500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1148400</v>
+      </c>
+      <c r="F89" s="3">
         <v>593200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>211400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-392500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1877800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1612600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-418100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>543800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>166200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,49 +4171,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-10300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-13400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-16200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-14200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-14300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-19600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4261,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,49 +4308,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>291000</v>
+      </c>
+      <c r="F94" s="3">
         <v>8000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>143100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>159000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-14400</v>
       </c>
       <c r="I94" s="3">
         <v>-13300</v>
       </c>
       <c r="J94" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="L94" s="3">
         <v>-5300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>2000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,49 +4378,57 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-43600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-19400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-233700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-166600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-490700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-152300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4468,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4515,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,49 +4562,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1152600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1352200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-585000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-386900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>118300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2154300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1407700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1021800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-571500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>360500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,45 +4656,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>441700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>87200</v>
+      </c>
+      <c r="F102" s="3">
         <v>16200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-32300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-115100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>263200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-219200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>590400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-33000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>528700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>LDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,44 +734,47 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>354100</v>
+      </c>
+      <c r="E8" s="3">
         <v>382100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>611600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>877000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1119000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>979900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1300200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1409300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3318800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1218400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>619200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -780,44 +784,47 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E9" s="3">
         <v>84700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>114600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>122400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>129200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>132100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>127100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>108200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>229700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>71300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>72600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,44 +834,47 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E10" s="3">
         <v>297400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>497000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>754600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>989800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>847800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1173100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1301100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3089100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1147100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>546600</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,17 +1004,20 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>40700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1013,8 +1033,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1034,44 +1054,47 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E15" s="3">
         <v>11300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>8700</v>
       </c>
       <c r="H15" s="3">
         <v>8700</v>
       </c>
       <c r="I15" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="J15" s="3">
         <v>8500</v>
       </c>
       <c r="K15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="L15" s="3">
         <v>27100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,44 +1123,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>440400</v>
+      </c>
+      <c r="E17" s="3">
         <v>567400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>631800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>725200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>778700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>783000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>910200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>777100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1603100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>525100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>419000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,44 +1171,47 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-185300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-20200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>151800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>340300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>196900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>390000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>632200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1715700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>693300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,44 +1243,45 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-33500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-68400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-118600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-138500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-145100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>69300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-68300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-216100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-33100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,44 +1291,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-114600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-207600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-78000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>42900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>210500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>60500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>467800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>572400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1526600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>669300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>109300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,44 +1341,47 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E22" s="3">
         <v>33100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>22300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>22800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>21300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>32100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,44 +1391,47 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-252000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-102900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>179000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>30500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>446100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>548000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1467400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>649500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>89000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,43 +1441,46 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-28200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-11600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>24700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,44 +1541,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-137500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-223800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-91300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>154300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>427900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>547200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1465900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>648600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>89000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,43 +1591,46 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>51500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>44900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>547200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1465900</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,44 +1841,47 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E32" s="3">
         <v>33500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>68400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>118600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>138500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>145100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-69300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>68300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>216100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>33100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,43 +1891,46 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>51500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>44900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>547200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1465900</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,43 +1991,46 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>51500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>44900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>547200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1465900</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -1962,49 +2041,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2096,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,38 +2138,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1143900</v>
+      </c>
+      <c r="E41" s="3">
         <v>954900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>554100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>419600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>506600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>419300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>630500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>284200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>637500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2186,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,38 +2236,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E43" s="3">
         <v>91800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>116000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>56200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>68100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>65200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>84000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>138100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>118400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2286,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,38 +2336,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>115500</v>
+      </c>
+      <c r="E45" s="3">
         <v>140100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>116300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>140300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>108700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>94800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>84800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>77200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2386,11 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2334,38 +2436,41 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3364900</v>
+      </c>
+      <c r="E47" s="3">
         <v>5286500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7059800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8591600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9581200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9968200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9648100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8219100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6089200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,38 +2486,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>138400</v>
+      </c>
+      <c r="E48" s="3">
         <v>159900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>161000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>159900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>161600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>158800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>154200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>151400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>132700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2536,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2437,29 +2548,29 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>42200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>42300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>42400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>42600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>42700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>43000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,38 +2686,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>160900</v>
+      </c>
+      <c r="E52" s="3">
         <v>194600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>153700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>201000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>97800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>217400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>121400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>204500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>70400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,38 +2786,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7378500</v>
+      </c>
+      <c r="E54" s="3">
         <v>9195200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10640200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11812300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12749300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13097600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13298300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10893200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8651300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,38 +2878,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>716000</v>
+      </c>
+      <c r="E57" s="3">
         <v>643100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>804400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>624400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>715600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>607800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>890800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>442900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>376000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2926,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2842,38 +2976,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E59" s="3">
         <v>66500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>71900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>73000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>78100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>80800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>86000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>72600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,8 +3026,11 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2936,38 +3076,41 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4813100</v>
+      </c>
+      <c r="E61" s="3">
         <v>6692500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7754500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9085400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9620900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9971700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9614500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7293300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5325800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2983,8 +3126,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,38 +3326,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6878900</v>
+      </c>
+      <c r="E66" s="3">
         <v>8650600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10073800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11288800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12214200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12579500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12694100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10893200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7017800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,38 +3596,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-265600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-205200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-77200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-44800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>42400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
         <v>1503700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,38 +3796,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>499600</v>
+      </c>
+      <c r="E76" s="3">
         <v>544600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>566400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>523600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>535100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>518100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>604200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3">
         <v>1633500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +3896,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,43 +3951,46 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>51500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>44900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>547200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1465900</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,44 +4023,45 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E83" s="3">
         <v>11300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>8700</v>
       </c>
       <c r="H83" s="3">
         <v>8700</v>
       </c>
       <c r="I83" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="J83" s="3">
         <v>8500</v>
       </c>
       <c r="K83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="L83" s="3">
         <v>27100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,44 +4321,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1744000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1522500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1148400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>593200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>211400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-392500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1877800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1612600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-418100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>543800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>166200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,44 +4393,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,44 +4541,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>295000</v>
+      </c>
+      <c r="E94" s="3">
         <v>71900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>291000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>8000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>143100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>159000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,43 +4613,44 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-86900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-30200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-43600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-19400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-233700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-166600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-490700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-152300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1900</v>
       </c>
       <c r="M96" s="3">
         <v>-1900</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,44 +4811,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1883700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1152600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1352200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-585000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-386900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>118300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2154300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1407700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1021800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-571500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>360500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4615,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,44 +4911,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E102" s="3">
         <v>441700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>87200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-32300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-115100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>263200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-219200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>590400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>528700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>LDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,255 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>287500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>253300</v>
+      </c>
+      <c r="F8" s="3">
         <v>354100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>382100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>611600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>877000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1119000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>979900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1300200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1409300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3318800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1218400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>619200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>50500</v>
+      </c>
+      <c r="F9" s="3">
         <v>75100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>84700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>114600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>122400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>129200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>132100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>127100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>108200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>229700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>71300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>72600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>238500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>202800</v>
+      </c>
+      <c r="F10" s="3">
         <v>279000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>297400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>497000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>754600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>989800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>847800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1173100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1301100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3089100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1147100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>546600</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +932,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +984,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,22 +1040,28 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>40700</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>46700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1036,11 +1075,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1057,58 +1096,70 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F15" s="3">
         <v>10200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>11300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>10500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>9700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>8700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>8700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>8500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>8500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>27100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>9200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>9400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1175,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>298200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>333000</v>
+      </c>
+      <c r="F17" s="3">
         <v>440400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>567400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>631800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>725200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>778700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>783000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>910200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>777100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1603100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>525100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>419000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-79700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-86300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-185300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-20200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>151800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>340300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>196900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>390000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>632200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1715700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>693300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>200200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,249 +1309,275 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-38500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-33500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-68400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-118600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-138500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-145100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>69300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-68300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-216100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-33100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-123600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-114600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-207600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-78000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>42900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>210500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>60500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>467800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>572400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1526600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>669300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>109300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>40400</v>
+      </c>
+      <c r="F22" s="3">
         <v>36100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>33100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>14400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>22300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>22800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>21300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>13200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>15900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>32100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>10600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>11000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-106600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-174100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-160900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-252000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-102900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>10900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>179000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>30500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>446100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>548000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1467400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>649500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>89000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-23500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-28200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-11600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-3800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>24700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>18300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1494,8 +1585,14 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,99 +1641,111 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-91700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-157800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-137500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-223800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-91300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>14700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>154300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>26300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>427900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>547200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1465900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>648600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>89000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-60100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-34700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>8600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>51500</v>
       </c>
       <c r="I27" s="3">
         <v>8600</v>
       </c>
       <c r="J27" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L27" s="3">
         <v>44900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>547200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1465900</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1644,8 +1753,14 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1809,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1865,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1921,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,99 +1977,111 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F32" s="3">
         <v>38500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>33500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>68400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>118600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>138500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>145100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-69300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>68300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>216100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>33100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-60100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-34700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>8600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>51500</v>
       </c>
       <c r="I33" s="3">
         <v>8600</v>
       </c>
       <c r="J33" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K33" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L33" s="3">
         <v>44900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>547200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1465900</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -1944,8 +2089,14 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,49 +2145,55 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-60100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-34700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>8600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>51500</v>
       </c>
       <c r="I35" s="3">
         <v>8600</v>
       </c>
       <c r="J35" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K35" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L35" s="3">
         <v>44900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>547200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1465900</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2044,63 +2201,75 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2288,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,44 +2310,46 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>798100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>864000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1143900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>954900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>554100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>419600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>506600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>419300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>630500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>284200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>637500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,8 +2362,14 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,44 +2418,50 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>145300</v>
+      </c>
+      <c r="F43" s="3">
         <v>108300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>91800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>116000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>56200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>68100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>65200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>84000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>138100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>118400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2474,14 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,44 +2530,50 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>156000</v>
+      </c>
+      <c r="F45" s="3">
         <v>115500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>140100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>116300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>140300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>108700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>94800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>84800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>77200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>57600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,8 +2586,14 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2439,44 +2642,50 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2825700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3122800</v>
+      </c>
+      <c r="F47" s="3">
         <v>3364900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>5286500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>7059800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>8591600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>9581200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>9968200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>9648100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>8219100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>6089200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,44 +2698,50 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>128600</v>
+      </c>
+      <c r="F48" s="3">
         <v>138400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>159900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>161000</v>
       </c>
       <c r="G48" s="3">
         <v>159900</v>
       </c>
       <c r="H48" s="3">
+        <v>161000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>159900</v>
+      </c>
+      <c r="J48" s="3">
         <v>161600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>158800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>154200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>151400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>132700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,44 +2754,50 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>42200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>42300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>42400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>42600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>42700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>42800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>43000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2810,14 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2866,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,44 +2922,50 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>116500</v>
+      </c>
+      <c r="F52" s="3">
         <v>160900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>194600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>153700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>201000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>97800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>217400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>121400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>204500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>70400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2978,14 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,44 +3034,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6190800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6609900</v>
+      </c>
+      <c r="F54" s="3">
         <v>7378500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9195200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10640200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>11812300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>12749300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>13097600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13298300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10893200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8651300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +3090,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +3116,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,44 +3138,46 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>449600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>488700</v>
+      </c>
+      <c r="F57" s="3">
         <v>716000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>643100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>804400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>624400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>715600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>607800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>890800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>442900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>376000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3190,14 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,44 +3246,50 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>61700</v>
+      </c>
+      <c r="F59" s="3">
         <v>66100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>66500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>67700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>71900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>73000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>78100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>80800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>86000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>72600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3302,14 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3079,44 +3358,50 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4134000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4435900</v>
+      </c>
+      <c r="F61" s="3">
         <v>4813100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6692500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7754500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>9085400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>9620900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>9971700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9614500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7293300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5325800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3129,8 +3414,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3179,8 +3470,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3526,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3582,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,44 +3638,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5786900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6176400</v>
+      </c>
+      <c r="F66" s="3">
         <v>6878900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8650600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10073800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11288800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12214200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12579500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12694100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10893200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7017800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3694,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3720,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3772,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3828,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3884,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,44 +3940,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-384800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-342100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-265600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-205200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-77200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-29000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-17800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-44800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>42400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
         <v>1503700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3996,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +4052,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +4108,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,44 +4164,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>403900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>433500</v>
+      </c>
+      <c r="F76" s="3">
         <v>499600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>544600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>566400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>523600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>535100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>518100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>604200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3">
         <v>1633500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4220,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,104 +4276,116 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-60100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-34700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>8600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>51500</v>
       </c>
       <c r="I81" s="3">
         <v>8600</v>
       </c>
       <c r="J81" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K81" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L81" s="3">
         <v>44900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>547200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1465900</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4004,8 +4393,14 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4419,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F83" s="3">
         <v>10200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>11300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>10500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>9700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>8700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>8500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>27100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>9200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>9400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4527,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4583,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4639,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4695,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4751,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>205400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>45800</v>
+      </c>
+      <c r="F89" s="3">
         <v>1744000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1522500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1148400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>593200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>211400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-392500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1877800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1612600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-418100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>543800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>166200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4833,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-8800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-14500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-14300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-10300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-13400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-16200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-14200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-14300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-19600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-5400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4941,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4997,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F94" s="3">
         <v>295000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>71900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>291000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>8000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>143100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>159000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-14400</v>
       </c>
       <c r="L94" s="3">
         <v>-13300</v>
       </c>
       <c r="M94" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="O94" s="3">
         <v>-5300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>2000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,58 +5079,66 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-86900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-30200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-43600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-19400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-233700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-166600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-490700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-152300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +5187,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5243,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,58 +5299,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-304600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-380100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1883700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1152600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1352200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-585000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-386900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>118300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2154300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1407700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1021800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-571500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>360500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5411,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-92300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-324400</v>
+      </c>
+      <c r="F102" s="3">
         <v>155300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>441700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>87200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>16200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-32300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-115100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>263200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-219200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>590400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-33000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>528700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>LDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,53 +745,56 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>340500</v>
+      </c>
+      <c r="E8" s="3">
         <v>287500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>253300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>354100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>382100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>611600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>877000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1119000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>979900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1300200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1409300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3318800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1218400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>619200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,53 +804,56 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E9" s="3">
         <v>49000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>50500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>75100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>84700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>114600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>122400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>129200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>132100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>127100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>108200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>229700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>71300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>72600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,53 +863,56 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>287300</v>
+      </c>
+      <c r="E10" s="3">
         <v>238500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>202800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>279000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>297400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>497000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>754600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>989800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>847800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1173100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1301100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3089100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1147100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>546600</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,26 +1063,29 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>2400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>46700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1081,8 +1101,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1102,53 +1122,56 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E15" s="3">
         <v>10000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>8700</v>
       </c>
       <c r="K15" s="3">
         <v>8700</v>
       </c>
       <c r="L15" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="M15" s="3">
         <v>8500</v>
       </c>
       <c r="N15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="O15" s="3">
         <v>27100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9400</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,53 +1203,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>317300</v>
+      </c>
+      <c r="E17" s="3">
         <v>298200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>333000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>440400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>567400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>631800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>725200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>778700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>783000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>910200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>777100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1603100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>525100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>419000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,53 +1260,56 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-79700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-86300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-185300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>151800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>340300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>196900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>390000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>632200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1715700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>693300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,53 +1344,54 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-52800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-54000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-38500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-33500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-68400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-118600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-138500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-145100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>69300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-68300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-216100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-33100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1367,53 +1401,56 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-53500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-123600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-114600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-207600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-78000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>42900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>210500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>60500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>467800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>572400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1526600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>669300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>109300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,53 +1460,56 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E22" s="3">
         <v>43100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>36100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>33100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>22300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>22800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>32100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11000</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,53 +1519,56 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-106600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-174100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-160900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-252000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-102900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>179000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>446100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>548000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1467400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>649500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>89000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1535,52 +1578,55 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-14900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-16300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-23500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-28200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-11600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,53 +1696,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-91700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-157800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-137500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-223800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-91300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>154300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>427900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>547200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1465900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>648600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>89000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,52 +1755,55 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-42900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-77300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-60100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>51500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>547200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1465900</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,53 +2050,56 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E32" s="3">
         <v>52800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>54000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>38500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>33500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>68400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>118600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>138500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>145100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-69300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>68300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>216100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>33100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,52 +2109,55 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-42900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-77300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-60100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>51500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>547200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1465900</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,52 +2227,55 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-42900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-77300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-60100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>51500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>547200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1465900</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2207,58 +2286,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,47 +2398,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>719100</v>
+      </c>
+      <c r="E41" s="3">
         <v>798100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>864000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1143900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>954900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>554100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>419600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>506600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>419300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>630500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>284200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>637500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2455,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,47 +2514,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E43" s="3">
         <v>99400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>145300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>108300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>91800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>116000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>56200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>68100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>65200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>84000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>138100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>118400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2480,8 +2573,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,47 +2632,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E45" s="3">
         <v>139900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>156000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>115500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>140100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>116300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>140300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>108700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>94800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>84800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>77200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>57600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,8 +2691,11 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2648,47 +2750,50 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3015700</v>
+      </c>
+      <c r="E47" s="3">
         <v>2825700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3122800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3364900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5286500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7059800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8591600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9581200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9968200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9648100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8219100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6089200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,47 +2809,50 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116700</v>
+      </c>
+      <c r="E48" s="3">
         <v>124200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>128600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>138400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>159900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>161000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>159900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>161600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>158800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>154200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>151400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>132700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,16 +2868,19 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2778,29 +2889,29 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>42200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>42300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>43000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,47 +3045,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E52" s="3">
         <v>90100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>116500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>160900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>194600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>153700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>201000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>97800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>217400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>121400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>204500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>70400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,47 +3163,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6203500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6190800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6609900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7378500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9195200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10640200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11812300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12749300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13097600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13298300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10893200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8651300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,47 +3270,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>407400</v>
+      </c>
+      <c r="E57" s="3">
         <v>449600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>488700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>716000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>643100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>804400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>624400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>715600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>607800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>890800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>442900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>376000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3327,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3252,47 +3386,50 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E59" s="3">
         <v>57800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>61700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>66100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>66500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>71900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>73000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>78100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>80800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>86000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>72600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,8 +3445,11 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3364,47 +3504,50 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4286000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4134000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4435900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4813100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6692500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7754500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9085400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9620900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9971700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9614500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7293300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5325800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3420,8 +3563,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,47 +3799,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5814100</v>
+      </c>
+      <c r="E66" s="3">
         <v>5786900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6176400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6878900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8650600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10073800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11288800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12214200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12579500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12694100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10893200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7017800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,47 +4117,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-408200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-384800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-342100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-265600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-205200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-77200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3">
         <v>1503700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,47 +4353,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>389400</v>
+      </c>
+      <c r="E76" s="3">
         <v>403900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>433500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>499600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>544600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>566400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>523600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>535100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>518100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>604200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3">
         <v>1633500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,58 +4471,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,52 +4535,55 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-42900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-77300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-60100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>51500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>547200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1465900</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,53 +4619,54 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E83" s="3">
         <v>10000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>8700</v>
       </c>
       <c r="K83" s="3">
         <v>8700</v>
       </c>
       <c r="L83" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="M83" s="3">
         <v>8500</v>
       </c>
       <c r="N83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="O83" s="3">
         <v>27100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,53 +4971,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-337400</v>
+      </c>
+      <c r="E89" s="3">
         <v>205400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>45800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1744000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1522500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1148400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>593200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>211400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-392500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1877800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1612600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-418100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>543800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>166200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,53 +5055,54 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,53 +5230,56 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E94" s="3">
         <v>6900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>9900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>295000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>71900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>291000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>8000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>143100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>159000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,52 +5314,53 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-86900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-30200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-43600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-19400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-233700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-166600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-490700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-152300</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1900</v>
       </c>
       <c r="P96" s="3">
         <v>-1900</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,53 +5548,56 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-304600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-380100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1883700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1152600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1352200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-585000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-386900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>118300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2154300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1407700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1021800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-571500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>360500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5607,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,53 +5666,56 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-107800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-92300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-324400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>155300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>441700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>87200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-32300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-115100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>263200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-219200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>590400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>528700</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LDI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>LDI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,56 +749,59 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E8" s="3">
         <v>340500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>287500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>253300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>354100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>382100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>611600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>877000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1119000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>979900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1300200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1409300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3318800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1218400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>619200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,56 +811,59 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E9" s="3">
         <v>53200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>50500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>84700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>114600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>122400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>129200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>132100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>127100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>108200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>229700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>71300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>72600</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,56 +873,59 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>277100</v>
+      </c>
+      <c r="E10" s="3">
         <v>287300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>238500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>202800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>279000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>297400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>497000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>754600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>989800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>847800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1173100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1301100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3089100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1147100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>546600</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,29 +1083,32 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>2400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>46700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1104,8 +1124,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1125,56 +1145,59 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E15" s="3">
         <v>10700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>8700</v>
       </c>
       <c r="L15" s="3">
         <v>8700</v>
       </c>
       <c r="M15" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="N15" s="3">
         <v>8500</v>
       </c>
       <c r="O15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="P15" s="3">
         <v>27100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9400</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,56 +1230,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>295600</v>
+      </c>
+      <c r="E17" s="3">
         <v>317300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>298200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>333000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>440400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>567400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>631800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>725200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>778700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>783000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>910200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>777100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1603100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>525100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>419000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,56 +1290,59 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E18" s="3">
         <v>23200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-79700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-86300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-185300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>151800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>340300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>196900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>390000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>632200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1715700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>693300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,56 +1378,57 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-38500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-52800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-54000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-38500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-33500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-68400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-118600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-138500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-145100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>69300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-68300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-216100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1404,56 +1438,59 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4600</v>
+        <v>15300</v>
       </c>
       <c r="E21" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-53500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-123600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-114600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-207600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-78000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>42900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>210500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>60500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>467800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>572400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1526600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>669300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>109300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,56 +1500,59 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>43000</v>
+        <v>44200</v>
       </c>
       <c r="E22" s="3">
         <v>43100</v>
       </c>
       <c r="F22" s="3">
+        <v>43100</v>
+      </c>
+      <c r="G22" s="3">
         <v>40400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>36100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>33100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>22300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>32100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1522,56 +1562,59 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-58300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-106600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-174100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-160900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-252000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-102900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>179000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>446100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>548000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1467400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>649500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>89000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,55 +1624,58 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-14900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-16300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-23500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-28200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-11600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,56 +1748,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-49800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-91700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-157800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-137500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-223800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-91300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>154300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>427900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>547200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1465900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>648600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>89000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,55 +1810,58 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-42900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-77300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-60100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>44900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>547200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1465900</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1817,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,56 +2120,59 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E32" s="3">
         <v>38500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>52800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>54000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>38500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>33500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>68400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>118600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>138500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>145100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-69300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>68300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>216100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>33100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2112,55 +2182,58 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-42900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-77300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-60100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>44900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>547200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1465900</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2171,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,55 +2306,58 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-42900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-77300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-60100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>44900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>547200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1465900</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2289,61 +2368,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2435,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,50 +2485,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>717200</v>
+      </c>
+      <c r="E41" s="3">
         <v>719100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>798100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>864000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1143900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>954900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>554100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>419600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>506600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>419300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>630500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>284200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>637500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,8 +2545,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,50 +2607,53 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E43" s="3">
         <v>68600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>99400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>145300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>108300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>91800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>116000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>56200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>68100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>65200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>84000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>138100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>118400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2669,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,50 +2731,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>124800</v>
+      </c>
+      <c r="E45" s="3">
         <v>129700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>139900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>156000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>115500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>140100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>116300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>140300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>108700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>94800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>84800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>77200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>57600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,8 +2793,11 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2753,50 +2855,53 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2818700</v>
+      </c>
+      <c r="E47" s="3">
         <v>3015700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2825700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3122800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3364900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5286500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7059800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8591600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9581200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9968200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9648100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8219100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6089200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2812,50 +2917,53 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E48" s="3">
         <v>116700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>124200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>128600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>138400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>159900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>161000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>159900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>161600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>158800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>154200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>151400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>132700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,8 +2979,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2882,8 +2993,8 @@
       <c r="E49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2892,29 +3003,29 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>42200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>43000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,50 +3165,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E52" s="3">
         <v>61300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>90100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>116500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>160900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>194600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>153700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>201000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>97800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>217400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>121400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>204500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>70400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,50 +3289,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6078500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6203500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6190800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6609900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7378500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9195200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10640200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11812300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12749300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13097600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13298300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10893200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8651300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,50 +3401,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>462500</v>
+      </c>
+      <c r="E57" s="3">
         <v>407400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>449600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>488700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>716000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>643100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>804400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>624400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>715600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>607800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>890800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>442900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>376000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3461,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3389,50 +3523,53 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E59" s="3">
         <v>56600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>57800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>61700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>66100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>66500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>67700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>71900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>73000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>78100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>86000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>72600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,8 +3585,11 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3507,50 +3647,53 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4103900</v>
+      </c>
+      <c r="E61" s="3">
         <v>4286000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4134000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4435900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4813100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6692500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7754500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9085400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9620900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9971700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9614500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7293300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5325800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3566,8 +3709,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,50 +3957,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5699400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5814100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5786900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6176400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6878900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8650600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10073800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11288800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12214200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12579500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12694100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10893200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7017800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,50 +4291,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-424500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-408200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-384800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-342100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-265600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-205200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-77200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-44800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
         <v>1503700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,50 +4539,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>379200</v>
+      </c>
+      <c r="E76" s="3">
         <v>389400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>403900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>433500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>499600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>544600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>566400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>523600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>535100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>518100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>604200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3">
         <v>1633500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,61 +4663,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,55 +4730,58 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-42900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-77300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-60100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>44900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>547200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1465900</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4597,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,56 +4818,57 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E83" s="3">
         <v>10700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>8700</v>
       </c>
       <c r="L83" s="3">
         <v>8700</v>
       </c>
       <c r="M83" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="N83" s="3">
         <v>8500</v>
       </c>
       <c r="O83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="P83" s="3">
         <v>27100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,56 +5188,59 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>163300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-337400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>205400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>45800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1744000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1522500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1148400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>593200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>211400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-392500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1877800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1612600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-418100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>543800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>166200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5033,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,56 +5276,57 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5115,8 +5336,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,56 +5460,59 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E94" s="3">
         <v>81200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>9900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>295000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>71900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>291000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>143100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>159000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5292,8 +5522,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,55 +5548,56 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-86900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-30200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-43600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-19400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-233700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-166600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-490700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-152300</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1900</v>
       </c>
       <c r="Q96" s="3">
         <v>-1900</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,56 +5794,59 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-182600</v>
+      </c>
+      <c r="E100" s="3">
         <v>148400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-304600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-380100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1883700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1152600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1352200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-585000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-386900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>118300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2154300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1407700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1021800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-571500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>360500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5610,8 +5856,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,56 +5918,59 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-107800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-92300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-324400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>155300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>441700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>87200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-32300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-115100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>263200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-219200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>590400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>528700</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5726,6 +5978,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
